--- a/01_講義/プレ研修/IT入門タイムテーブル_新人研修_1.0.2.xlsx
+++ b/01_講義/プレ研修/IT入門タイムテーブル_新人研修_1.0.2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\m-hor\OneDrive\デスクトップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\000_2023\ITスクール\2023FILE\01_講義\プレ研修\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567C2759-897C-4E79-AFB7-DF0643E4BBC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E8B5B4-E331-4007-8015-FF065300CB28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3825" yWindow="3030" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="研修概要" sheetId="5" r:id="rId1"/>
@@ -39,14 +39,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="252">
   <si>
     <t>概要</t>
   </si>
   <si>
-    <t>オープン研修</t>
-  </si>
-  <si>
     <t>オープン単元</t>
   </si>
   <si>
@@ -74,79 +71,11 @@
     <t>IT入門研修のゴール</t>
   </si>
   <si>
-    <t>日程</t>
-  </si>
-  <si>
-    <t>東京、神奈川、大阪、オンライン</t>
-  </si>
-  <si>
-    <t>資料の展開</t>
-  </si>
-  <si>
-    <t>Backlogの以下のリンクよりダウンロードください</t>
-  </si>
-  <si>
-    <t>https://tis-3sss.backlog.jp/git/SCHOOL_OPE/contents_ope/tree/master/02_%E5%80%8B%E5%88%A5%E7%A0%94%E4%BF%AE%E6%95%99%E6%9D%90/025_IT%E5%85%A5%E9%96%80</t>
-  </si>
-  <si>
     <t>弊社のオプション研修としてIT技術の基本的な内容を身につけるために３日間の研修を実施します。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>WEBアプリケーションが動くまでの大まかな流れをネットワークからアプリケーションの動きまで把握できる。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2023/4/5 ~ 4/7</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>2023/4/6 - 4/10</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>※前営業日が７つの習慣講座となります。デスク上にデバイスを置くように受講生に指示してください。</t>
-    <rPh sb="2" eb="4">
-      <t>エイギョウ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ジョウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>※集合形式の会場の場合、受講生用PCはデスクトップに置かれたファイルがおかれた状態になっています</t>
-    <rPh sb="1" eb="5">
-      <t>シュウゴウケイシキ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カイジョウ</t>
-    </rPh>
-    <rPh sb="9" eb="11">
-      <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>※翌営業日は７つの習慣講座となります。集合形式の会場の場合、デスクからPCを撤去し、デスクの引き出し、もしくは、教室隅においてください。</t>
-    <rPh sb="2" eb="4">
-      <t>エイギョウ</t>
-    </rPh>
-    <rPh sb="19" eb="23">
-      <t>シュウゴウケイシキ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>カイジョウ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="46" eb="47">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="48" eb="49">
-      <t>ダ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1757,13 +1686,6 @@
 研修ガイダンス</t>
     <rPh sb="5" eb="7">
       <t>ケンシュウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>地方（札幌、仙台、名古屋、京都、出雲、福岡、沖縄）</t>
-    <rPh sb="13" eb="15">
-      <t>キョウト</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2177,6 +2099,47 @@
     </rPh>
     <rPh sb="300" eb="301">
       <t>ツタ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>オープン研修　2023-04-06～04-10</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コンピューター</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>列1</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>HTML/CSS</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>通信</t>
+    <rPh sb="0" eb="2">
+      <t>ツウシン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>oracle</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>java/spring</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>成果物</t>
+    <rPh sb="0" eb="2">
+      <t>セイカ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ブツ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -2424,7 +2387,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2484,6 +2447,17 @@
     <xf numFmtId="20" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2505,34 +2479,32 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2540,24 +2512,44 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="21">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -2743,29 +2735,29 @@
   </dxfs>
   <tableStyles count="5">
     <tableStyle name="研修概要-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="18"/>
-      <tableStyleElement type="firstRowStripe" dxfId="17"/>
-      <tableStyleElement type="secondRowStripe" dxfId="16"/>
+      <tableStyleElement type="headerRow" dxfId="20"/>
+      <tableStyleElement type="firstRowStripe" dxfId="19"/>
+      <tableStyleElement type="secondRowStripe" dxfId="18"/>
     </tableStyle>
     <tableStyle name="IT入門1日目-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="headerRow" dxfId="15"/>
-      <tableStyleElement type="firstRowStripe" dxfId="14"/>
-      <tableStyleElement type="secondRowStripe" dxfId="13"/>
+      <tableStyleElement type="headerRow" dxfId="17"/>
+      <tableStyleElement type="firstRowStripe" dxfId="16"/>
+      <tableStyleElement type="secondRowStripe" dxfId="15"/>
     </tableStyle>
     <tableStyle name="IT入門2日目-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
-      <tableStyleElement type="headerRow" dxfId="12"/>
-      <tableStyleElement type="firstRowStripe" dxfId="11"/>
-      <tableStyleElement type="secondRowStripe" dxfId="10"/>
+      <tableStyleElement type="headerRow" dxfId="14"/>
+      <tableStyleElement type="firstRowStripe" dxfId="13"/>
+      <tableStyleElement type="secondRowStripe" dxfId="12"/>
     </tableStyle>
     <tableStyle name="IT入門3日目-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF03000000}">
-      <tableStyleElement type="headerRow" dxfId="9"/>
-      <tableStyleElement type="firstRowStripe" dxfId="8"/>
-      <tableStyleElement type="secondRowStripe" dxfId="7"/>
+      <tableStyleElement type="headerRow" dxfId="11"/>
+      <tableStyleElement type="firstRowStripe" dxfId="10"/>
+      <tableStyleElement type="secondRowStripe" dxfId="9"/>
     </tableStyle>
     <tableStyle name="IT入門3日目-style 2" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF04000000}">
-      <tableStyleElement type="headerRow" dxfId="6"/>
-      <tableStyleElement type="firstRowStripe" dxfId="5"/>
-      <tableStyleElement type="secondRowStripe" dxfId="4"/>
+      <tableStyleElement type="headerRow" dxfId="8"/>
+      <tableStyleElement type="firstRowStripe" dxfId="7"/>
+      <tableStyleElement type="secondRowStripe" dxfId="6"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2780,9 +2772,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D89304C0-9319-4513-8DBE-72B34D8EED9A}" name="Table_17" displayName="Table_17" ref="A5:A12" headerRowDxfId="3" dataDxfId="2" totalsRowDxfId="1">
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{EEC9CD1E-2F24-43CE-A568-814B18BC8B66}" name="オープン単元" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D89304C0-9319-4513-8DBE-72B34D8EED9A}" name="Table_17" displayName="Table_17" ref="A5:B12" headerRowDxfId="5" dataDxfId="4" totalsRowDxfId="3">
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{EEC9CD1E-2F24-43CE-A568-814B18BC8B66}" name="オープン単元" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{48A5AD24-B371-4913-892D-80990E6269D5}" name="列1" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="研修概要-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2990,161 +2983,157 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A33"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="70" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="36.36328125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="36.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="28" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="12.6328125" style="2"/>
+    <col min="3" max="16384" width="12.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="25.5" x14ac:dyDescent="0.85">
+    <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="25.5" x14ac:dyDescent="0.85">
+    <row r="2" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="8" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A4" s="3"/>
+    </row>
+    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" ht="16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="3"/>
-    </row>
-    <row r="5" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="5" t="s">
+      <c r="B5" s="59" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" ht="16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="6" t="s">
+      <c r="B6" s="2" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" ht="16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="7" t="s">
+      <c r="B7" s="2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" ht="16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="6" t="s">
+      <c r="B8" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" ht="16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="7" t="s">
+      <c r="B9" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" ht="16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="6" t="s">
+      <c r="B10" s="2" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A11" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="7" t="s">
+    <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A12" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" ht="16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="6" t="s">
+      <c r="B12" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="25.5" x14ac:dyDescent="0.85">
-      <c r="A14" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" ht="16" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="25.5" x14ac:dyDescent="0.85">
-      <c r="A17" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" ht="16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="3" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="25.5" x14ac:dyDescent="0.85">
-      <c r="A26" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" ht="16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" ht="16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" ht="16" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:1" ht="24.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="8"/>
+    </row>
+    <row r="18" spans="1:1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A18" s="3"/>
+    </row>
+    <row r="19" spans="1:1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A19" s="3"/>
+    </row>
+    <row r="20" spans="1:1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A20" s="3"/>
+    </row>
+    <row r="22" spans="1:1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A22" s="3"/>
+    </row>
+    <row r="23" spans="1:1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A23" s="3"/>
+    </row>
+    <row r="24" spans="1:1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A24" s="3"/>
+    </row>
+    <row r="26" spans="1:1" ht="24.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="8"/>
+    </row>
+    <row r="27" spans="1:1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A27" s="3"/>
+    </row>
+    <row r="28" spans="1:1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A28" s="3"/>
+    </row>
+    <row r="29" spans="1:1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A29" s="4"/>
+    </row>
+    <row r="30" spans="1:1" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A30" s="3"/>
+    </row>
+    <row r="32" spans="1:1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A32" s="3"/>
     </row>
-    <row r="33" spans="1:1" s="10" customFormat="1" ht="16" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:1" s="10" customFormat="1" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A33" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <hyperlinks>
-    <hyperlink ref="A29" r:id="rId1" xr:uid="{08A472DB-E62A-46A9-B279-5466F747BD26}"/>
-  </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="75" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd" r:id="rId2"/>
+  <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3156,698 +3145,715 @@
   </sheetPr>
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A32" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" style="11" customWidth="1"/>
-    <col min="2" max="2" width="8.1796875" style="11" customWidth="1"/>
-    <col min="3" max="3" width="27.1796875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="41.1796875" style="11" customWidth="1"/>
-    <col min="5" max="5" width="95.36328125" style="11" customWidth="1"/>
-    <col min="6" max="16384" width="12.6328125" style="11"/>
+    <col min="1" max="1" width="22.5703125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="41.140625" style="11" customWidth="1"/>
+    <col min="5" max="5" width="95.42578125" style="11" customWidth="1"/>
+    <col min="6" max="16384" width="12.5703125" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.85">
-      <c r="A1" s="32" t="s">
-        <v>251</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-    </row>
-    <row r="2" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-    </row>
-    <row r="3" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-    </row>
-    <row r="4" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-    </row>
-    <row r="5" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-    </row>
-    <row r="6" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="24.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+    </row>
+    <row r="2" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+    </row>
+    <row r="3" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+    </row>
+    <row r="4" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+    </row>
+    <row r="5" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+    </row>
+    <row r="6" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="13"/>
     </row>
-    <row r="7" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="18" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="36"/>
-    </row>
-    <row r="9" spans="1:5" ht="96" x14ac:dyDescent="0.55000000000000004">
+        <v>17</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="41"/>
+    </row>
+    <row r="9" spans="1:5" ht="99" x14ac:dyDescent="0.4">
       <c r="A9" s="15" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="38"/>
-    </row>
-    <row r="10" spans="1:5" ht="304" x14ac:dyDescent="0.55000000000000004">
+        <v>19</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="43"/>
+    </row>
+    <row r="10" spans="1:5" ht="313.5" x14ac:dyDescent="0.4">
       <c r="A10" s="16" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>32</v>
-      </c>
-      <c r="D10" s="40"/>
-    </row>
-    <row r="11" spans="1:5" ht="176" x14ac:dyDescent="0.55000000000000004">
+        <v>19</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="45"/>
+    </row>
+    <row r="11" spans="1:5" ht="181.5" x14ac:dyDescent="0.4">
       <c r="A11" s="15" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="38"/>
-    </row>
-    <row r="12" spans="1:5" ht="288" x14ac:dyDescent="0.55000000000000004">
+        <v>19</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="43"/>
+    </row>
+    <row r="12" spans="1:5" ht="297" x14ac:dyDescent="0.4">
       <c r="A12" s="16" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C12" s="39" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="40"/>
-    </row>
-    <row r="13" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="C12" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="45"/>
+    </row>
+    <row r="13" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
       <c r="C13" s="13"/>
     </row>
-    <row r="14" spans="1:5" ht="16" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A14" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="46"/>
+      <c r="D14" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="115.5" x14ac:dyDescent="0.4">
+      <c r="A15" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" s="36"/>
+      <c r="D15" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="174" x14ac:dyDescent="0.4">
+      <c r="A16" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B16" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" s="35"/>
+      <c r="D16" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="49.5" x14ac:dyDescent="0.4">
+      <c r="A17" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="36"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" s="15" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="99" x14ac:dyDescent="0.4">
+      <c r="A18" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="16" t="s">
+        <v>225</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="165" x14ac:dyDescent="0.4">
+      <c r="A19" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="B19" s="36"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="15" t="s">
+        <v>228</v>
+      </c>
+      <c r="E19" s="15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="33" x14ac:dyDescent="0.4">
+      <c r="A20" s="30" t="s">
+        <v>230</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="33"/>
+      <c r="D20" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="18" t="s">
+      <c r="E20" s="16"/>
+    </row>
+    <row r="21" spans="1:5" ht="148.5" x14ac:dyDescent="0.4">
+      <c r="A21" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="15" t="s">
+        <v>231</v>
+      </c>
+      <c r="E21" s="15" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="49.5" x14ac:dyDescent="0.4">
+      <c r="A22" s="20" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="112" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="19" t="s">
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="C15" s="31"/>
-      <c r="D15" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="E15" s="15" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="169" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="20" t="s">
+      <c r="E22" s="16" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A23" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B23" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="36"/>
+      <c r="D23" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E23" s="15"/>
+    </row>
+    <row r="24" spans="1:5" ht="49.5" x14ac:dyDescent="0.4">
+      <c r="A24" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="17" t="s">
+      <c r="B24" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="29" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="19" t="s">
+      <c r="C24" s="35"/>
+      <c r="D24" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="6" t="s">
+      <c r="E24" s="16" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="396" x14ac:dyDescent="0.4">
+      <c r="A25" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="E17" s="15" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="96" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="20" t="s">
-        <v>238</v>
-      </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="16" t="s">
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E25" s="15" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="115.5" x14ac:dyDescent="0.4">
+      <c r="A26" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A27" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="36"/>
+      <c r="D27" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="15"/>
+    </row>
+    <row r="28" spans="1:5" ht="115.5" x14ac:dyDescent="0.4">
+      <c r="A28" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="35"/>
+      <c r="D28" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E28" s="16" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="82.5" x14ac:dyDescent="0.4">
+      <c r="A29" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E29" s="15" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A30" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B30" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="35"/>
+      <c r="D30" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="17"/>
+    </row>
+    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A31" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="36"/>
+      <c r="D31" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="6"/>
+    </row>
+    <row r="32" spans="1:5" ht="99" x14ac:dyDescent="0.4">
+      <c r="A32" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="E32" s="21" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A33" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="6"/>
+    </row>
+    <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A34" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="E34" s="17"/>
+    </row>
+    <row r="35" spans="1:5" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A35" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" s="6"/>
+    </row>
+    <row r="36" spans="1:5" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A36" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="C36" s="33"/>
+      <c r="D36" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" s="17"/>
+    </row>
+    <row r="37" spans="1:5" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A37" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" s="6"/>
+    </row>
+    <row r="38" spans="1:5" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A38" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="E38" s="17"/>
+    </row>
+    <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A39" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="E39" s="6"/>
+    </row>
+    <row r="40" spans="1:5" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A40" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="C40" s="33"/>
+      <c r="D40" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E40" s="16"/>
+    </row>
+    <row r="41" spans="1:5" ht="49.5" x14ac:dyDescent="0.4">
+      <c r="A41" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="C41" s="34"/>
+      <c r="D41" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E41" s="15" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="66" x14ac:dyDescent="0.4">
+      <c r="A42" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A43" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B43" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="C43" s="36"/>
+      <c r="D43" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E43" s="15"/>
+    </row>
+    <row r="44" spans="1:5" ht="82.5" x14ac:dyDescent="0.4">
+      <c r="A44" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="C44" s="33"/>
+      <c r="D44" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E44" s="16" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="165" x14ac:dyDescent="0.4">
+      <c r="A45" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="B45" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45" s="34"/>
+      <c r="D45" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="E45" s="15" t="s">
         <v>237</v>
       </c>
-      <c r="E18" s="16" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="160" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="19" t="s">
-        <v>241</v>
-      </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="15" t="s">
-        <v>240</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="30" t="s">
-        <v>242</v>
-      </c>
-      <c r="B20" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="C20" s="43"/>
-      <c r="D20" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E20" s="16"/>
-    </row>
-    <row r="21" spans="1:5" ht="144" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="19" t="s">
-        <v>244</v>
-      </c>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="15" t="s">
-        <v>243</v>
-      </c>
-      <c r="E21" s="15" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="20" t="s">
-        <v>48</v>
-      </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="42"/>
-      <c r="D22" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="19" t="s">
-        <v>50</v>
-      </c>
-      <c r="B23" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="C23" s="31"/>
-      <c r="D23" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E23" s="15"/>
-    </row>
-    <row r="24" spans="1:5" ht="48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="384" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="15" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="112" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="B26" s="42"/>
-      <c r="C26" s="42"/>
-      <c r="D26" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E27" s="15"/>
-    </row>
-    <row r="28" spans="1:5" ht="112" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="20" t="s">
-        <v>59</v>
-      </c>
-      <c r="B28" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="42"/>
-      <c r="D28" s="17" t="s">
-        <v>60</v>
-      </c>
-      <c r="E28" s="16" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="80" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="19" t="s">
-        <v>61</v>
-      </c>
-      <c r="B29" s="44"/>
-      <c r="C29" s="44"/>
-      <c r="D29" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="E29" s="15" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="B30" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="42"/>
-      <c r="D30" s="17" t="s">
-        <v>65</v>
-      </c>
-      <c r="E30" s="17"/>
-    </row>
-    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="19" t="s">
-        <v>66</v>
-      </c>
-      <c r="B31" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="C31" s="31"/>
-      <c r="D31" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" s="6"/>
-    </row>
-    <row r="32" spans="1:5" ht="96" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="B32" s="42"/>
-      <c r="C32" s="42"/>
-      <c r="D32" s="17" t="s">
-        <v>82</v>
-      </c>
-      <c r="E32" s="21" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="B33" s="44"/>
-      <c r="C33" s="44"/>
-      <c r="D33" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E33" s="6"/>
-    </row>
-    <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="B34" s="42"/>
-      <c r="C34" s="42"/>
-      <c r="D34" s="17" t="s">
-        <v>69</v>
-      </c>
-      <c r="E34" s="17"/>
-    </row>
-    <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="19" t="s">
-        <v>89</v>
-      </c>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E35" s="6"/>
-    </row>
-    <row r="36" spans="1:5" ht="16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="B36" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="C36" s="43"/>
-      <c r="D36" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E36" s="17"/>
-    </row>
-    <row r="37" spans="1:5" ht="16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="19" t="s">
-        <v>91</v>
-      </c>
-      <c r="B37" s="44"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="E37" s="6"/>
-    </row>
-    <row r="38" spans="1:5" ht="16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="B38" s="42"/>
-      <c r="C38" s="42"/>
-      <c r="D38" s="17" t="s">
-        <v>73</v>
-      </c>
-      <c r="E38" s="17"/>
-    </row>
-    <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A39" s="19" t="s">
-        <v>93</v>
-      </c>
-      <c r="B39" s="44"/>
-      <c r="C39" s="44"/>
-      <c r="D39" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="E39" s="6"/>
-    </row>
-    <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="B40" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="C40" s="43"/>
-      <c r="D40" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E40" s="16"/>
-    </row>
-    <row r="41" spans="1:5" ht="48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="19" t="s">
-        <v>96</v>
-      </c>
-      <c r="B41" s="44" t="s">
-        <v>95</v>
-      </c>
-      <c r="C41" s="44"/>
-      <c r="D41" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="64" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="B42" s="42"/>
-      <c r="C42" s="42"/>
-      <c r="D42" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="B43" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="C43" s="31"/>
-      <c r="D43" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E43" s="15"/>
-    </row>
-    <row r="44" spans="1:5" ht="80" x14ac:dyDescent="0.55000000000000004">
-      <c r="A44" s="20" t="s">
+    </row>
+    <row r="46" spans="1:5" ht="115.5" x14ac:dyDescent="0.4">
+      <c r="A46" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="C46" s="33"/>
+      <c r="D46" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="B44" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="C44" s="43"/>
-      <c r="D44" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="E44" s="16" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="160" x14ac:dyDescent="0.55000000000000004">
-      <c r="A45" s="19" t="s">
-        <v>104</v>
-      </c>
-      <c r="B45" s="44" t="s">
-        <v>106</v>
-      </c>
-      <c r="C45" s="44"/>
-      <c r="D45" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="E45" s="15" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" ht="112" x14ac:dyDescent="0.55000000000000004">
-      <c r="A46" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="B46" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="C46" s="43"/>
-      <c r="D46" s="17" t="s">
-        <v>113</v>
-      </c>
       <c r="E46" s="16" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="12"/>
       <c r="B47" s="12"/>
       <c r="C47" s="13"/>
     </row>
-    <row r="48" spans="1:5" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="12"/>
       <c r="B48" s="12"/>
       <c r="C48" s="13"/>
     </row>
-    <row r="49" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="12"/>
       <c r="B49" s="12"/>
       <c r="C49" s="13"/>
     </row>
-    <row r="50" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A50" s="12"/>
       <c r="B50" s="12"/>
       <c r="C50" s="13"/>
     </row>
-    <row r="51" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="12"/>
       <c r="B51" s="12"/>
       <c r="C51" s="13"/>
     </row>
-    <row r="52" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A52" s="12"/>
       <c r="B52" s="12"/>
       <c r="C52" s="13"/>
     </row>
-    <row r="53" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A53" s="12"/>
       <c r="B53" s="12"/>
       <c r="C53" s="13"/>
     </row>
-    <row r="54" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A54" s="12"/>
       <c r="B54" s="12"/>
       <c r="C54" s="13"/>
     </row>
-    <row r="55" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A55" s="12"/>
       <c r="B55" s="12"/>
       <c r="C55" s="13"/>
     </row>
-    <row r="56" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="12"/>
       <c r="B56" s="12"/>
       <c r="C56" s="13"/>
     </row>
-    <row r="57" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A57" s="12"/>
       <c r="B57" s="12"/>
       <c r="C57" s="13"/>
     </row>
-    <row r="58" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="12"/>
       <c r="B58" s="12"/>
       <c r="C58" s="13"/>
     </row>
-    <row r="59" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A59" s="12"/>
       <c r="B59" s="12"/>
       <c r="C59" s="13"/>
     </row>
-    <row r="60" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="12"/>
       <c r="B60" s="12"/>
       <c r="C60" s="13"/>
     </row>
-    <row r="61" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="12"/>
       <c r="B61" s="12"/>
       <c r="C61" s="13"/>
     </row>
-    <row r="62" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A62" s="12"/>
       <c r="B62" s="12"/>
       <c r="C62" s="13"/>
     </row>
-    <row r="63" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="12"/>
       <c r="B63" s="12"/>
       <c r="C63" s="13"/>
     </row>
-    <row r="64" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A64" s="12"/>
       <c r="B64" s="12"/>
       <c r="C64" s="13"/>
     </row>
-    <row r="65" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A65" s="12"/>
       <c r="B65" s="12"/>
       <c r="C65" s="13"/>
     </row>
-    <row r="66" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A66" s="12"/>
       <c r="B66" s="12"/>
       <c r="C66" s="13"/>
     </row>
-    <row r="67" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A67" s="12"/>
       <c r="B67" s="12"/>
       <c r="C67" s="13"/>
     </row>
-    <row r="68" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A68" s="14"/>
     </row>
-    <row r="69" spans="1:3" ht="12.5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A69" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="B29:C29"/>
@@ -3860,30 +3866,13 @@
     <mergeCell ref="B36:C36"/>
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -3906,673 +3895,698 @@
   </sheetPr>
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="22.54296875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.1796875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27.1796875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="41.1796875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="97.7265625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="12.6328125" style="2"/>
+    <col min="1" max="1" width="22.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="41.140625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="97.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="12.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.85">
-      <c r="A1" s="32" t="s">
-        <v>251</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-    </row>
-    <row r="2" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-    </row>
-    <row r="3" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-    </row>
-    <row r="4" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-    </row>
-    <row r="5" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-    </row>
-    <row r="6" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" ht="24.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+    </row>
+    <row r="2" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+    </row>
+    <row r="3" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+    </row>
+    <row r="4" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+    </row>
+    <row r="5" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+    </row>
+    <row r="6" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="13"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="18" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="36"/>
+        <v>17</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="41"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" ht="304" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" ht="313.5" x14ac:dyDescent="0.4">
       <c r="A9" s="15" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>203</v>
-      </c>
-      <c r="D9" s="38"/>
+        <v>107</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>192</v>
+      </c>
+      <c r="D9" s="43"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:5" ht="224" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" ht="231" x14ac:dyDescent="0.4">
       <c r="A10" s="16" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>117</v>
-      </c>
-      <c r="D10" s="40"/>
+        <v>105</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>106</v>
+      </c>
+      <c r="D10" s="45"/>
       <c r="E10" s="11"/>
     </row>
-    <row r="11" spans="1:5" ht="96" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" ht="99" x14ac:dyDescent="0.4">
       <c r="A11" s="28" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>152</v>
-      </c>
-      <c r="C11" s="45" t="s">
-        <v>153</v>
-      </c>
-      <c r="D11" s="46"/>
+        <v>141</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="52"/>
       <c r="E11" s="11"/>
     </row>
-    <row r="12" spans="1:5" ht="15.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="24"/>
     </row>
-    <row r="13" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="46"/>
+      <c r="D13" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="132" x14ac:dyDescent="0.4">
+      <c r="A14" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="36"/>
+      <c r="D14" s="23" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="132" x14ac:dyDescent="0.4">
+      <c r="A15" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="35"/>
+      <c r="D15" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="C16" s="36"/>
+      <c r="D16" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="18" t="s">
+      <c r="E16" s="15"/>
+    </row>
+    <row r="17" spans="1:5" ht="66" x14ac:dyDescent="0.4">
+      <c r="A17" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="128" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="B14" s="31" t="s">
+      <c r="B17" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="C17" s="35"/>
+      <c r="D17" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="112" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="B15" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="17" t="s">
+      <c r="E17" s="16" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="82.5" x14ac:dyDescent="0.4">
+      <c r="A18" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="36" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="36"/>
+      <c r="D18" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="E18" s="15" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B19" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="50"/>
+      <c r="D19" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="16"/>
+    </row>
+    <row r="20" spans="1:5" ht="66" x14ac:dyDescent="0.4">
+      <c r="A20" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="49"/>
+      <c r="D20" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="99" x14ac:dyDescent="0.4">
+      <c r="A21" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="49.5" x14ac:dyDescent="0.4">
+      <c r="A22" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="50"/>
+      <c r="D23" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" s="16"/>
+    </row>
+    <row r="24" spans="1:5" ht="115.5" x14ac:dyDescent="0.4">
+      <c r="A24" s="19" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="49"/>
+      <c r="D24" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E24" s="15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="49.5" x14ac:dyDescent="0.4">
+      <c r="A25" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="B25" s="50"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="17" t="s">
+        <v>132</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A26" s="19" t="s">
+        <v>135</v>
+      </c>
+      <c r="B26" s="36"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="E26" s="15"/>
+    </row>
+    <row r="27" spans="1:5" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A27" s="26" t="s">
+        <v>117</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="33"/>
+      <c r="D27" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="16"/>
+    </row>
+    <row r="28" spans="1:5" ht="49.5" x14ac:dyDescent="0.4">
+      <c r="A28" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="B28" s="36"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E28" s="15" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="35"/>
+      <c r="D29" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="E29" s="17"/>
+    </row>
+    <row r="30" spans="1:5" ht="49.5" x14ac:dyDescent="0.4">
+      <c r="A30" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="E30" s="15" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A31" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="33"/>
+      <c r="D31" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" s="16"/>
+    </row>
+    <row r="32" spans="1:5" ht="49.5" x14ac:dyDescent="0.4">
+      <c r="A32" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="E32" s="15" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A33" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="17" t="s">
         <v>119</v>
       </c>
-      <c r="E15" s="16" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="15"/>
-    </row>
-    <row r="17" spans="1:5" ht="64" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="17" t="s">
+      <c r="E33" s="17"/>
+    </row>
+    <row r="34" spans="1:5" ht="49.5" x14ac:dyDescent="0.4">
+      <c r="A34" s="19" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34" s="36"/>
+      <c r="C34" s="36"/>
+      <c r="D34" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="E17" s="16" t="s">
+      <c r="E34" s="15" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A35" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="C35" s="33"/>
+      <c r="D35" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E35" s="16"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="19" t="s">
+        <v>128</v>
+      </c>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E36" s="6"/>
+    </row>
+    <row r="37" spans="1:5" ht="49.5" x14ac:dyDescent="0.4">
+      <c r="A37" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="E37" s="16" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="80" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="E18" s="15" t="s">
+    <row r="38" spans="1:5" ht="82.5" x14ac:dyDescent="0.4">
+      <c r="A38" s="19" t="s">
+        <v>131</v>
+      </c>
+      <c r="B38" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="C38" s="49"/>
+      <c r="D38" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E38" s="15" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B19" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E19" s="16"/>
-    </row>
-    <row r="20" spans="1:5" ht="64" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="80" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="B21" s="42"/>
-      <c r="C21" s="42"/>
-      <c r="D21" s="17" t="s">
-        <v>77</v>
-      </c>
-      <c r="E21" s="16" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" s="31"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" s="15" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="B23" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="C23" s="47"/>
-      <c r="D23" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="E23" s="16"/>
-    </row>
-    <row r="24" spans="1:5" ht="112" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="19" t="s">
-        <v>127</v>
-      </c>
-      <c r="B24" s="48" t="s">
-        <v>74</v>
-      </c>
-      <c r="C24" s="48"/>
-      <c r="D24" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="26" t="s">
-        <v>145</v>
-      </c>
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="17" t="s">
-        <v>143</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="E26" s="15"/>
-    </row>
-    <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="26" t="s">
-        <v>128</v>
-      </c>
-      <c r="B27" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="C27" s="43"/>
-      <c r="D27" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E27" s="16"/>
-    </row>
-    <row r="28" spans="1:5" ht="48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="19" t="s">
-        <v>148</v>
-      </c>
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="E28" s="15" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="20" t="s">
-        <v>68</v>
-      </c>
-      <c r="B29" s="42" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="E29" s="17"/>
-    </row>
-    <row r="30" spans="1:5" ht="48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="B30" s="44"/>
-      <c r="C30" s="44"/>
-      <c r="D30" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="E30" s="15" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="26" t="s">
-        <v>72</v>
-      </c>
-      <c r="B31" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="C31" s="43"/>
-      <c r="D31" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" s="16"/>
-    </row>
-    <row r="32" spans="1:5" ht="48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="19" t="s">
-        <v>134</v>
-      </c>
-      <c r="B32" s="44"/>
-      <c r="C32" s="44"/>
-      <c r="D32" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="E32" s="15" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
-      <c r="D33" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="E33" s="17"/>
-    </row>
-    <row r="34" spans="1:5" ht="48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="B34" s="31"/>
-      <c r="C34" s="31"/>
-      <c r="D34" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="E34" s="15" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="26" t="s">
-        <v>76</v>
-      </c>
-      <c r="B35" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="C35" s="43"/>
-      <c r="D35" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E35" s="16"/>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A36" s="19" t="s">
-        <v>139</v>
-      </c>
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="E36" s="6"/>
-    </row>
-    <row r="37" spans="1:5" ht="48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A37" s="20" t="s">
-        <v>150</v>
-      </c>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42"/>
-      <c r="D37" s="17" t="s">
-        <v>138</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="80" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="B38" s="50" t="s">
-        <v>151</v>
-      </c>
-      <c r="C38" s="48"/>
-      <c r="D38" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="E38" s="15" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="16" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:5" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A39" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" s="33"/>
+      <c r="D39" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="E39" s="16"/>
+    </row>
+    <row r="40" spans="1:5" ht="82.5" x14ac:dyDescent="0.4">
+      <c r="A40" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B40" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" s="36"/>
+      <c r="D40" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="E40" s="15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="165" x14ac:dyDescent="0.4">
+      <c r="A41" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="47"/>
+      <c r="D41" s="17" t="s">
+        <v>96</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="115.5" x14ac:dyDescent="0.4">
+      <c r="A42" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="B39" s="43" t="s">
-        <v>110</v>
-      </c>
-      <c r="C39" s="43"/>
-      <c r="D39" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E39" s="16"/>
-    </row>
-    <row r="40" spans="1:5" ht="80" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="19" t="s">
+      <c r="B42" s="36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" s="36"/>
+      <c r="D42" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B40" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="C40" s="31"/>
-      <c r="D40" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="160" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="B41" s="49" t="s">
-        <v>105</v>
-      </c>
-      <c r="C41" s="49"/>
-      <c r="D41" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="112" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="19" t="s">
-        <v>109</v>
-      </c>
-      <c r="B42" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="C42" s="31"/>
-      <c r="D42" s="6" t="s">
-        <v>112</v>
-      </c>
       <c r="E42" s="15" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="24"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="24"/>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="24"/>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="24"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="24"/>
     </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="24"/>
     </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="24"/>
     </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="24"/>
     </row>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="24"/>
     </row>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="24"/>
     </row>
-    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="24"/>
     </row>
-    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="24"/>
     </row>
-    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="24"/>
     </row>
-    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="24"/>
     </row>
-    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="24"/>
     </row>
-    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="24"/>
     </row>
-    <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="24"/>
     </row>
-    <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="24"/>
     </row>
-    <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="24"/>
     </row>
-    <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="24"/>
     </row>
-    <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="24"/>
     </row>
-    <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="24"/>
     </row>
-    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="24"/>
     </row>
-    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="25"/>
     </row>
-    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="25"/>
     </row>
-    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="25"/>
     </row>
-    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
@@ -4587,31 +4601,6 @@
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -4633,599 +4622,601 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="24.54296875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.1796875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="27.1796875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="46.36328125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="97.7265625" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="12.6328125" style="2"/>
+    <col min="1" max="1" width="24.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="46.42578125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="97.7109375" style="2" customWidth="1"/>
+    <col min="6" max="16384" width="12.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.5" x14ac:dyDescent="0.85">
-      <c r="A1" s="32" t="s">
-        <v>251</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-    </row>
-    <row r="2" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2" s="33"/>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-    </row>
-    <row r="3" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="34" t="s">
-        <v>24</v>
-      </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-    </row>
-    <row r="4" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="33" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="33"/>
-      <c r="C4" s="33"/>
-      <c r="D4" s="33"/>
-      <c r="E4" s="33"/>
-    </row>
-    <row r="5" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="33" t="s">
-        <v>26</v>
-      </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="33"/>
-    </row>
-    <row r="6" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" ht="24.75" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="37" t="s">
+        <v>239</v>
+      </c>
+      <c r="B1" s="37"/>
+      <c r="C1" s="37"/>
+      <c r="D1" s="37"/>
+      <c r="E1" s="37"/>
+    </row>
+    <row r="2" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+    </row>
+    <row r="3" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+    </row>
+    <row r="4" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="38"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+    </row>
+    <row r="5" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+    </row>
+    <row r="6" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="12"/>
       <c r="B6" s="12"/>
       <c r="C6" s="13"/>
       <c r="D6" s="11"/>
       <c r="E6" s="11"/>
     </row>
-    <row r="7" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="11"/>
     </row>
-    <row r="8" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="18" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="36"/>
+        <v>17</v>
+      </c>
+      <c r="C8" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="41"/>
       <c r="E8" s="11"/>
     </row>
-    <row r="9" spans="1:5" ht="160" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" ht="165" x14ac:dyDescent="0.4">
       <c r="A9" s="15" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>156</v>
-      </c>
-      <c r="D9" s="38"/>
+        <v>19</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="D9" s="43"/>
       <c r="E9" s="11"/>
     </row>
-    <row r="10" spans="1:5" ht="224" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" ht="231" x14ac:dyDescent="0.4">
       <c r="A10" s="16" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>116</v>
-      </c>
-      <c r="C10" s="39" t="s">
-        <v>157</v>
-      </c>
-      <c r="D10" s="40"/>
+        <v>105</v>
+      </c>
+      <c r="C10" s="44" t="s">
+        <v>146</v>
+      </c>
+      <c r="D10" s="45"/>
       <c r="E10" s="11"/>
     </row>
-    <row r="11" spans="1:5" ht="176" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" ht="181.5" x14ac:dyDescent="0.4">
       <c r="A11" s="28" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>155</v>
-      </c>
-      <c r="C11" s="45" t="s">
-        <v>158</v>
-      </c>
-      <c r="D11" s="46"/>
+        <v>144</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="D11" s="52"/>
       <c r="E11" s="11"/>
     </row>
-    <row r="12" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="24"/>
     </row>
-    <row r="13" spans="1:5" ht="24.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B13" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="46"/>
+      <c r="D13" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="18" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="132" x14ac:dyDescent="0.4">
+      <c r="A14" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="C14" s="53"/>
+      <c r="D14" s="22" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" s="15" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="66" x14ac:dyDescent="0.4">
+      <c r="A15" s="26" t="s">
+        <v>151</v>
+      </c>
+      <c r="B15" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="C15" s="35"/>
+      <c r="D15" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="115.5" x14ac:dyDescent="0.4">
+      <c r="A16" s="19" t="s">
+        <v>152</v>
+      </c>
+      <c r="B16" s="53"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A17" s="26" t="s">
+        <v>120</v>
+      </c>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="17" t="s">
+        <v>150</v>
+      </c>
+      <c r="E17" s="16"/>
+    </row>
+    <row r="18" spans="1:5" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A18" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" s="53"/>
+      <c r="D18" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="128" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="B14" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="E14" s="15" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="64" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="26" t="s">
+      <c r="E18" s="15"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="B19" s="50"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="E19" s="16"/>
+    </row>
+    <row r="20" spans="1:5" ht="198" x14ac:dyDescent="0.4">
+      <c r="A20" s="19" t="s">
+        <v>156</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="C20" s="49"/>
+      <c r="D20" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A21" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="50" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="50"/>
+      <c r="D21" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E21" s="16"/>
+    </row>
+    <row r="22" spans="1:5" ht="33" x14ac:dyDescent="0.4">
+      <c r="A22" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="B22" s="53"/>
+      <c r="C22" s="53"/>
+      <c r="D22" s="15" t="s">
+        <v>158</v>
+      </c>
+      <c r="E22" s="15"/>
+    </row>
+    <row r="23" spans="1:5" ht="49.5" x14ac:dyDescent="0.4">
+      <c r="A23" s="26" t="s">
+        <v>161</v>
+      </c>
+      <c r="B23" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="C23" s="47"/>
+      <c r="D23" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="E23" s="16" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="49.5" x14ac:dyDescent="0.4">
+      <c r="A24" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="B15" s="51" t="s">
-        <v>151</v>
-      </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="112" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="19" t="s">
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B16" s="52"/>
-      <c r="C16" s="52"/>
-      <c r="D16" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="42"/>
-      <c r="D17" s="17" t="s">
-        <v>161</v>
-      </c>
-      <c r="E17" s="16"/>
-    </row>
-    <row r="18" spans="1:5" ht="16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E18" s="15"/>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="26" t="s">
+      <c r="E24" s="15" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A25" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" s="50"/>
+      <c r="D25" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="E25" s="16"/>
+    </row>
+    <row r="26" spans="1:5" ht="66" x14ac:dyDescent="0.4">
+      <c r="A26" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="B26" s="56" t="s">
+        <v>159</v>
+      </c>
+      <c r="C26" s="57"/>
+      <c r="D26" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="E26" s="15" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="72.599999999999994" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="17" t="s">
-        <v>164</v>
-      </c>
-      <c r="E19" s="16"/>
-    </row>
-    <row r="20" spans="1:5" ht="176" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="19" t="s">
+      <c r="B27" s="54" t="s">
+        <v>241</v>
+      </c>
+      <c r="C27" s="55"/>
+      <c r="D27" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="E27" s="31" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="A28" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="53"/>
+      <c r="D28" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E28" s="15"/>
+    </row>
+    <row r="29" spans="1:5" ht="32.1" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="B20" s="48" t="s">
-        <v>140</v>
-      </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="6" t="s">
-        <v>182</v>
-      </c>
-      <c r="E20" s="15" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="17" t="s">
-        <v>45</v>
-      </c>
-      <c r="E21" s="16"/>
-    </row>
-    <row r="22" spans="1:5" ht="32" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="19" t="s">
-        <v>168</v>
-      </c>
-      <c r="B22" s="52"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="15" t="s">
-        <v>169</v>
-      </c>
-      <c r="E22" s="15"/>
-    </row>
-    <row r="23" spans="1:5" ht="48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="26" t="s">
-        <v>172</v>
-      </c>
-      <c r="B23" s="49" t="s">
-        <v>170</v>
-      </c>
-      <c r="C23" s="49"/>
-      <c r="D23" s="17" t="s">
-        <v>171</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="48" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="B24" s="52"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="6" t="s">
-        <v>174</v>
-      </c>
-      <c r="E24" s="15" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="26" t="s">
-        <v>125</v>
-      </c>
-      <c r="B25" s="47" t="s">
-        <v>110</v>
-      </c>
-      <c r="C25" s="47"/>
-      <c r="D25" s="17" t="s">
-        <v>165</v>
-      </c>
-      <c r="E25" s="16"/>
-    </row>
-    <row r="26" spans="1:5" ht="64" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="B26" s="53" t="s">
-        <v>170</v>
-      </c>
-      <c r="C26" s="54"/>
-      <c r="D26" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="E26" s="15" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="72.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="26" t="s">
-        <v>177</v>
-      </c>
-      <c r="B27" s="56" t="s">
-        <v>253</v>
-      </c>
-      <c r="C27" s="57"/>
-      <c r="D27" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="E27" s="55" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="19" t="s">
-        <v>132</v>
-      </c>
-      <c r="B28" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C28" s="52"/>
-      <c r="D28" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E28" s="15"/>
-    </row>
-    <row r="29" spans="1:5" ht="32" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="B29" s="56" t="s">
-        <v>253</v>
-      </c>
-      <c r="C29" s="57"/>
+      <c r="B29" s="54" t="s">
+        <v>241</v>
+      </c>
+      <c r="C29" s="55"/>
       <c r="D29" s="17"/>
       <c r="E29" s="16" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="16" x14ac:dyDescent="0.55000000000000004">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A30" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="B30" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C30" s="52"/>
+        <v>169</v>
+      </c>
+      <c r="B30" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="C30" s="53"/>
       <c r="D30" s="6" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E30" s="15"/>
     </row>
-    <row r="31" spans="1:5" ht="112" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:5" ht="115.5" x14ac:dyDescent="0.4">
       <c r="A31" s="26" t="s">
-        <v>184</v>
-      </c>
-      <c r="B31" s="49" t="s">
-        <v>181</v>
-      </c>
-      <c r="C31" s="49"/>
+        <v>173</v>
+      </c>
+      <c r="B31" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="C31" s="47"/>
       <c r="D31" s="17" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="16" x14ac:dyDescent="0.55000000000000004">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A32" s="19" t="s">
-        <v>76</v>
-      </c>
-      <c r="B32" s="52" t="s">
-        <v>111</v>
-      </c>
-      <c r="C32" s="52"/>
+        <v>65</v>
+      </c>
+      <c r="B32" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="C32" s="53"/>
       <c r="D32" s="6" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E32" s="15"/>
     </row>
-    <row r="33" spans="1:5" ht="224" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:5" ht="231" x14ac:dyDescent="0.4">
       <c r="A33" s="26" t="s">
-        <v>189</v>
-      </c>
-      <c r="B33" s="42"/>
-      <c r="C33" s="42"/>
+        <v>178</v>
+      </c>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
       <c r="D33" s="16" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="16" x14ac:dyDescent="0.55000000000000004">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A34" s="19" t="s">
-        <v>186</v>
-      </c>
-      <c r="B34" s="52" t="s">
-        <v>110</v>
-      </c>
-      <c r="C34" s="52"/>
+        <v>175</v>
+      </c>
+      <c r="B34" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="53"/>
       <c r="D34" s="6" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="E34" s="15"/>
     </row>
-    <row r="35" spans="1:5" ht="256" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:5" ht="264" x14ac:dyDescent="0.4">
       <c r="A35" s="26" t="s">
-        <v>185</v>
-      </c>
-      <c r="B35" s="47" t="s">
-        <v>110</v>
-      </c>
-      <c r="C35" s="47"/>
+        <v>174</v>
+      </c>
+      <c r="B35" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" s="50"/>
       <c r="D35" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="E35" s="58" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" ht="160" x14ac:dyDescent="0.55000000000000004">
+        <v>176</v>
+      </c>
+      <c r="E35" s="32" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="165" x14ac:dyDescent="0.4">
       <c r="A36" s="19" t="s">
-        <v>103</v>
-      </c>
-      <c r="B36" s="44" t="s">
-        <v>105</v>
-      </c>
-      <c r="C36" s="44"/>
+        <v>92</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="C36" s="34"/>
       <c r="D36" s="6" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="E36" s="15" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="112" x14ac:dyDescent="0.55000000000000004">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="115.5" x14ac:dyDescent="0.4">
       <c r="A37" s="20" t="s">
-        <v>109</v>
-      </c>
-      <c r="B37" s="47" t="s">
-        <v>110</v>
-      </c>
-      <c r="C37" s="47"/>
+        <v>98</v>
+      </c>
+      <c r="B37" s="50" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="50"/>
       <c r="D37" s="17" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="24"/>
     </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="24"/>
     </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="24"/>
     </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="24"/>
     </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="24"/>
     </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="24"/>
     </row>
-    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="24"/>
     </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="24"/>
     </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="24"/>
     </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="24"/>
     </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="24"/>
     </row>
-    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="24"/>
     </row>
-    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="24"/>
     </row>
-    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="24"/>
     </row>
-    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="24"/>
     </row>
-    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="24"/>
     </row>
-    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="24"/>
     </row>
-    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="24"/>
     </row>
-    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="24"/>
     </row>
-    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="24"/>
     </row>
-    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A58" s="25"/>
     </row>
-    <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A59" s="25"/>
     </row>
-    <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A60" s="25"/>
     </row>
-    <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A61" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
     <mergeCell ref="B27:C27"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="B17:C17"/>
@@ -5238,18 +5229,16 @@
     <mergeCell ref="B24:C24"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>

--- a/01_講義/プレ研修/IT入門タイムテーブル_新人研修_1.0.2.xlsx
+++ b/01_講義/プレ研修/IT入門タイムテーブル_新人研修_1.0.2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\000_2023\ITスクール\2023FILE\01_講義\プレ研修\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E8B5B4-E331-4007-8015-FF065300CB28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C8386EC-C8D2-4B8D-B238-BACE71744C77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3825" yWindow="3030" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4515" yWindow="3720" windowWidth="21600" windowHeight="11295" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="研修概要" sheetId="5" r:id="rId1"/>
@@ -2453,11 +2453,9 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2479,23 +2477,31 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2511,12 +2517,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2985,7 +2985,7 @@
   </sheetPr>
   <dimension ref="A1:B33"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="70" zoomScaleSheetLayoutView="145" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="145" zoomScaleNormal="70" zoomScaleSheetLayoutView="145" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -3018,7 +3018,7 @@
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="33" t="s">
         <v>246</v>
       </c>
     </row>
@@ -3160,49 +3160,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="35" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
     </row>
     <row r="2" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
     </row>
     <row r="4" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
     </row>
     <row r="6" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
@@ -3224,10 +3224,10 @@
       <c r="B8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="41"/>
+      <c r="D8" s="39"/>
     </row>
     <row r="9" spans="1:5" ht="99" x14ac:dyDescent="0.4">
       <c r="A9" s="15" t="s">
@@ -3236,10 +3236,10 @@
       <c r="B9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="43"/>
+      <c r="D9" s="41"/>
     </row>
     <row r="10" spans="1:5" ht="313.5" x14ac:dyDescent="0.4">
       <c r="A10" s="16" t="s">
@@ -3248,10 +3248,10 @@
       <c r="B10" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="45"/>
+      <c r="D10" s="43"/>
     </row>
     <row r="11" spans="1:5" ht="181.5" x14ac:dyDescent="0.4">
       <c r="A11" s="15" t="s">
@@ -3260,10 +3260,10 @@
       <c r="B11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="43"/>
+      <c r="D11" s="41"/>
     </row>
     <row r="12" spans="1:5" ht="297" x14ac:dyDescent="0.4">
       <c r="A12" s="16" t="s">
@@ -3272,10 +3272,10 @@
       <c r="B12" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="45"/>
+      <c r="D12" s="43"/>
     </row>
     <row r="13" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
@@ -3286,10 +3286,10 @@
       <c r="A14" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="46"/>
+      <c r="C14" s="44"/>
       <c r="D14" s="18" t="s">
         <v>25</v>
       </c>
@@ -3301,10 +3301,10 @@
       <c r="A15" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="36"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="23" t="s">
         <v>100</v>
       </c>
@@ -3316,10 +3316,10 @@
       <c r="A16" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="35"/>
+      <c r="C16" s="45"/>
       <c r="D16" s="17" t="s">
         <v>30</v>
       </c>
@@ -3331,8 +3331,8 @@
       <c r="A17" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="6" t="s">
         <v>32</v>
       </c>
@@ -3344,8 +3344,8 @@
       <c r="A18" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
       <c r="D18" s="16" t="s">
         <v>225</v>
       </c>
@@ -3357,8 +3357,8 @@
       <c r="A19" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="15" t="s">
         <v>228</v>
       </c>
@@ -3370,10 +3370,10 @@
       <c r="A20" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="C20" s="33"/>
+      <c r="C20" s="46"/>
       <c r="D20" s="16" t="s">
         <v>35</v>
       </c>
@@ -3383,8 +3383,8 @@
       <c r="A21" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
       <c r="D21" s="15" t="s">
         <v>231</v>
       </c>
@@ -3396,8 +3396,8 @@
       <c r="A22" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
       <c r="D22" s="16" t="s">
         <v>38</v>
       </c>
@@ -3409,10 +3409,10 @@
       <c r="A23" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="C23" s="36"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="6" t="s">
         <v>35</v>
       </c>
@@ -3422,10 +3422,10 @@
       <c r="A24" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="35"/>
+      <c r="C24" s="45"/>
       <c r="D24" s="17" t="s">
         <v>42</v>
       </c>
@@ -3437,8 +3437,8 @@
       <c r="A25" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
       <c r="D25" s="6" t="s">
         <v>44</v>
       </c>
@@ -3450,8 +3450,8 @@
       <c r="A26" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
       <c r="D26" s="17" t="s">
         <v>45</v>
       </c>
@@ -3463,10 +3463,10 @@
       <c r="A27" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="36"/>
+      <c r="C27" s="34"/>
       <c r="D27" s="6" t="s">
         <v>47</v>
       </c>
@@ -3476,10 +3476,10 @@
       <c r="A28" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="35"/>
+      <c r="C28" s="45"/>
       <c r="D28" s="17" t="s">
         <v>49</v>
       </c>
@@ -3491,8 +3491,8 @@
       <c r="A29" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
       <c r="D29" s="6" t="s">
         <v>51</v>
       </c>
@@ -3504,10 +3504,10 @@
       <c r="A30" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="35"/>
+      <c r="C30" s="45"/>
       <c r="D30" s="17" t="s">
         <v>54</v>
       </c>
@@ -3517,10 +3517,10 @@
       <c r="A31" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="C31" s="36"/>
+      <c r="C31" s="34"/>
       <c r="D31" s="6" t="s">
         <v>35</v>
       </c>
@@ -3530,8 +3530,8 @@
       <c r="A32" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
       <c r="D32" s="17" t="s">
         <v>71</v>
       </c>
@@ -3543,8 +3543,8 @@
       <c r="A33" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="47"/>
       <c r="D33" s="6" t="s">
         <v>56</v>
       </c>
@@ -3554,8 +3554,8 @@
       <c r="A34" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
       <c r="D34" s="17" t="s">
         <v>58</v>
       </c>
@@ -3565,8 +3565,8 @@
       <c r="A35" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="47"/>
       <c r="D35" s="6" t="s">
         <v>60</v>
       </c>
@@ -3576,10 +3576,10 @@
       <c r="A36" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="C36" s="33"/>
+      <c r="C36" s="46"/>
       <c r="D36" s="17" t="s">
         <v>35</v>
       </c>
@@ -3589,8 +3589,8 @@
       <c r="A37" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="47"/>
       <c r="D37" s="6" t="s">
         <v>72</v>
       </c>
@@ -3600,8 +3600,8 @@
       <c r="A38" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
       <c r="D38" s="17" t="s">
         <v>62</v>
       </c>
@@ -3611,8 +3611,8 @@
       <c r="A39" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
       <c r="D39" s="6" t="s">
         <v>73</v>
       </c>
@@ -3622,10 +3622,10 @@
       <c r="A40" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="B40" s="33" t="s">
+      <c r="B40" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="C40" s="33"/>
+      <c r="C40" s="46"/>
       <c r="D40" s="17" t="s">
         <v>35</v>
       </c>
@@ -3635,10 +3635,10 @@
       <c r="A41" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B41" s="34" t="s">
+      <c r="B41" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="34"/>
+      <c r="C41" s="47"/>
       <c r="D41" s="6" t="s">
         <v>64</v>
       </c>
@@ -3650,8 +3650,8 @@
       <c r="A42" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="45"/>
       <c r="D42" s="17" t="s">
         <v>66</v>
       </c>
@@ -3663,10 +3663,10 @@
       <c r="A43" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="B43" s="36" t="s">
+      <c r="B43" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="C43" s="36"/>
+      <c r="C43" s="34"/>
       <c r="D43" s="6" t="s">
         <v>35</v>
       </c>
@@ -3676,10 +3676,10 @@
       <c r="A44" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="B44" s="33" t="s">
+      <c r="B44" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="C44" s="33"/>
+      <c r="C44" s="46"/>
       <c r="D44" s="16" t="s">
         <v>89</v>
       </c>
@@ -3691,10 +3691,10 @@
       <c r="A45" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B45" s="34" t="s">
+      <c r="B45" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="34"/>
+      <c r="C45" s="47"/>
       <c r="D45" s="6" t="s">
         <v>97</v>
       </c>
@@ -3706,10 +3706,10 @@
       <c r="A46" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B46" s="33" t="s">
+      <c r="B46" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="C46" s="33"/>
+      <c r="C46" s="46"/>
       <c r="D46" s="17" t="s">
         <v>102</v>
       </c>
@@ -3830,6 +3830,37 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
@@ -3842,37 +3873,6 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -3895,8 +3895,8 @@
   </sheetPr>
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A15" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3910,49 +3910,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="35" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
     </row>
     <row r="2" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
     </row>
     <row r="4" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
     </row>
     <row r="6" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="12"/>
@@ -3977,10 +3977,10 @@
       <c r="B8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="41"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:5" ht="313.5" x14ac:dyDescent="0.4">
@@ -3990,10 +3990,10 @@
       <c r="B9" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="D9" s="43"/>
+      <c r="D9" s="41"/>
       <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5" ht="231" x14ac:dyDescent="0.4">
@@ -4003,10 +4003,10 @@
       <c r="B10" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="D10" s="45"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:5" ht="99" x14ac:dyDescent="0.4">
@@ -4016,10 +4016,10 @@
       <c r="B11" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="D11" s="52"/>
+      <c r="D11" s="49"/>
       <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -4031,10 +4031,10 @@
       <c r="A13" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="46"/>
+      <c r="C13" s="44"/>
       <c r="D13" s="18" t="s">
         <v>25</v>
       </c>
@@ -4046,10 +4046,10 @@
       <c r="A14" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="C14" s="36"/>
+      <c r="C14" s="34"/>
       <c r="D14" s="23" t="s">
         <v>100</v>
       </c>
@@ -4061,10 +4061,10 @@
       <c r="A15" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="35"/>
+      <c r="C15" s="45"/>
       <c r="D15" s="17" t="s">
         <v>108</v>
       </c>
@@ -4076,10 +4076,10 @@
       <c r="A16" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="36"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="6" t="s">
         <v>35</v>
       </c>
@@ -4089,10 +4089,10 @@
       <c r="A17" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="35"/>
+      <c r="C17" s="45"/>
       <c r="D17" s="17" t="s">
         <v>111</v>
       </c>
@@ -4104,10 +4104,10 @@
       <c r="A18" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="36"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="6" t="s">
         <v>112</v>
       </c>
@@ -4132,10 +4132,10 @@
       <c r="A20" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="49"/>
+      <c r="C20" s="51"/>
       <c r="D20" s="6" t="s">
         <v>64</v>
       </c>
@@ -4147,8 +4147,8 @@
       <c r="A21" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
       <c r="D21" s="17" t="s">
         <v>66</v>
       </c>
@@ -4160,8 +4160,8 @@
       <c r="A22" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="6" t="s">
         <v>67</v>
       </c>
@@ -4186,10 +4186,10 @@
       <c r="A24" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="49"/>
+      <c r="C24" s="51"/>
       <c r="D24" s="6" t="s">
         <v>68</v>
       </c>
@@ -4214,8 +4214,8 @@
       <c r="A26" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="6" t="s">
         <v>69</v>
       </c>
@@ -4225,10 +4225,10 @@
       <c r="A27" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="33"/>
+      <c r="C27" s="46"/>
       <c r="D27" s="17" t="s">
         <v>35</v>
       </c>
@@ -4238,8 +4238,8 @@
       <c r="A28" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
       <c r="D28" s="6" t="s">
         <v>136</v>
       </c>
@@ -4251,10 +4251,10 @@
       <c r="A29" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="35"/>
+      <c r="C29" s="45"/>
       <c r="D29" s="17" t="s">
         <v>118</v>
       </c>
@@ -4264,8 +4264,8 @@
       <c r="A30" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
       <c r="D30" s="6" t="s">
         <v>133</v>
       </c>
@@ -4277,10 +4277,10 @@
       <c r="A31" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="C31" s="33"/>
+      <c r="C31" s="46"/>
       <c r="D31" s="17" t="s">
         <v>35</v>
       </c>
@@ -4290,8 +4290,8 @@
       <c r="A32" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
       <c r="D32" s="6" t="s">
         <v>138</v>
       </c>
@@ -4303,8 +4303,8 @@
       <c r="A33" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
       <c r="D33" s="17" t="s">
         <v>119</v>
       </c>
@@ -4314,8 +4314,8 @@
       <c r="A34" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
       <c r="D34" s="6" t="s">
         <v>122</v>
       </c>
@@ -4327,10 +4327,10 @@
       <c r="A35" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="33" t="s">
+      <c r="B35" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="C35" s="33"/>
+      <c r="C35" s="46"/>
       <c r="D35" s="17" t="s">
         <v>35</v>
       </c>
@@ -4340,8 +4340,8 @@
       <c r="A36" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="47"/>
       <c r="D36" s="6" t="s">
         <v>124</v>
       </c>
@@ -4351,8 +4351,8 @@
       <c r="A37" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
       <c r="D37" s="17" t="s">
         <v>127</v>
       </c>
@@ -4364,10 +4364,10 @@
       <c r="A38" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="B38" s="48" t="s">
+      <c r="B38" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="C38" s="49"/>
+      <c r="C38" s="51"/>
       <c r="D38" s="6" t="s">
         <v>130</v>
       </c>
@@ -4379,10 +4379,10 @@
       <c r="A39" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="33" t="s">
+      <c r="B39" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="C39" s="33"/>
+      <c r="C39" s="46"/>
       <c r="D39" s="17" t="s">
         <v>35</v>
       </c>
@@ -4392,10 +4392,10 @@
       <c r="A40" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="B40" s="36" t="s">
+      <c r="B40" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="C40" s="36"/>
+      <c r="C40" s="34"/>
       <c r="D40" s="15" t="s">
         <v>89</v>
       </c>
@@ -4407,10 +4407,10 @@
       <c r="A41" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B41" s="47" t="s">
+      <c r="B41" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="47"/>
+      <c r="C41" s="52"/>
       <c r="D41" s="17" t="s">
         <v>96</v>
       </c>
@@ -4422,10 +4422,10 @@
       <c r="A42" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="B42" s="36" t="s">
+      <c r="B42" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="C42" s="36"/>
+      <c r="C42" s="34"/>
       <c r="D42" s="6" t="s">
         <v>101</v>
       </c>
@@ -4562,31 +4562,6 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
@@ -4601,6 +4576,31 @@
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -4618,7 +4618,7 @@
   </sheetPr>
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A33" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
@@ -4633,49 +4633,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="35" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
     </row>
     <row r="2" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
     </row>
     <row r="4" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
     </row>
     <row r="6" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="12"/>
@@ -4700,10 +4700,10 @@
       <c r="B8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="41"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:5" ht="165" x14ac:dyDescent="0.4">
@@ -4713,10 +4713,10 @@
       <c r="B9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="D9" s="43"/>
+      <c r="D9" s="41"/>
       <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5" ht="231" x14ac:dyDescent="0.4">
@@ -4726,10 +4726,10 @@
       <c r="B10" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="D10" s="45"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:5" ht="181.5" x14ac:dyDescent="0.4">
@@ -4739,10 +4739,10 @@
       <c r="B11" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="D11" s="52"/>
+      <c r="D11" s="49"/>
       <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -4754,10 +4754,10 @@
       <c r="A13" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="46"/>
+      <c r="C13" s="44"/>
       <c r="D13" s="18" t="s">
         <v>25</v>
       </c>
@@ -4769,10 +4769,10 @@
       <c r="A14" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="C14" s="53"/>
+      <c r="C14" s="55"/>
       <c r="D14" s="22" t="s">
         <v>100</v>
       </c>
@@ -4784,10 +4784,10 @@
       <c r="A15" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="C15" s="35"/>
+      <c r="C15" s="45"/>
       <c r="D15" s="17" t="s">
         <v>130</v>
       </c>
@@ -4799,8 +4799,8 @@
       <c r="A16" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
       <c r="D16" s="6" t="s">
         <v>149</v>
       </c>
@@ -4812,8 +4812,8 @@
       <c r="A17" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
       <c r="D17" s="17" t="s">
         <v>150</v>
       </c>
@@ -4823,10 +4823,10 @@
       <c r="A18" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="53"/>
+      <c r="C18" s="55"/>
       <c r="D18" s="6" t="s">
         <v>35</v>
       </c>
@@ -4847,10 +4847,10 @@
       <c r="A20" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="C20" s="49"/>
+      <c r="C20" s="51"/>
       <c r="D20" s="6" t="s">
         <v>171</v>
       </c>
@@ -4875,8 +4875,8 @@
       <c r="A22" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
       <c r="D22" s="15" t="s">
         <v>158</v>
       </c>
@@ -4886,10 +4886,10 @@
       <c r="A23" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="C23" s="47"/>
+      <c r="C23" s="52"/>
       <c r="D23" s="17" t="s">
         <v>160</v>
       </c>
@@ -4901,8 +4901,8 @@
       <c r="A24" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
       <c r="D24" s="6" t="s">
         <v>163</v>
       </c>
@@ -4927,10 +4927,10 @@
       <c r="A26" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="B26" s="56" t="s">
+      <c r="B26" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="C26" s="57"/>
+      <c r="C26" s="59"/>
       <c r="D26" s="6" t="s">
         <v>165</v>
       </c>
@@ -4942,10 +4942,10 @@
       <c r="A27" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="B27" s="54" t="s">
+      <c r="B27" s="56" t="s">
         <v>241</v>
       </c>
-      <c r="C27" s="55"/>
+      <c r="C27" s="57"/>
       <c r="D27" s="17" t="s">
         <v>242</v>
       </c>
@@ -4957,10 +4957,10 @@
       <c r="A28" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="53"/>
+      <c r="C28" s="55"/>
       <c r="D28" s="6" t="s">
         <v>35</v>
       </c>
@@ -4970,10 +4970,10 @@
       <c r="A29" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="B29" s="54" t="s">
+      <c r="B29" s="56" t="s">
         <v>241</v>
       </c>
-      <c r="C29" s="55"/>
+      <c r="C29" s="57"/>
       <c r="D29" s="17"/>
       <c r="E29" s="16" t="s">
         <v>168</v>
@@ -4983,10 +4983,10 @@
       <c r="A30" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="B30" s="53" t="s">
+      <c r="B30" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="C30" s="53"/>
+      <c r="C30" s="55"/>
       <c r="D30" s="6" t="s">
         <v>35</v>
       </c>
@@ -4996,10 +4996,10 @@
       <c r="A31" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="B31" s="47" t="s">
+      <c r="B31" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="C31" s="47"/>
+      <c r="C31" s="52"/>
       <c r="D31" s="17" t="s">
         <v>172</v>
       </c>
@@ -5011,10 +5011,10 @@
       <c r="A32" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="53" t="s">
+      <c r="B32" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="53"/>
+      <c r="C32" s="55"/>
       <c r="D32" s="6" t="s">
         <v>35</v>
       </c>
@@ -5024,8 +5024,8 @@
       <c r="A33" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
       <c r="D33" s="16" t="s">
         <v>177</v>
       </c>
@@ -5037,10 +5037,10 @@
       <c r="A34" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="B34" s="53" t="s">
+      <c r="B34" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="C34" s="53"/>
+      <c r="C34" s="55"/>
       <c r="D34" s="6" t="s">
         <v>35</v>
       </c>
@@ -5065,10 +5065,10 @@
       <c r="A36" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="C36" s="34"/>
+      <c r="C36" s="47"/>
       <c r="D36" s="6" t="s">
         <v>96</v>
       </c>
@@ -5205,6 +5205,28 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
@@ -5217,28 +5239,6 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>

--- a/01_講義/プレ研修/IT入門タイムテーブル_新人研修_1.0.2.xlsx
+++ b/01_講義/プレ研修/IT入門タイムテーブル_新人研修_1.0.2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Document\000_2023\ITスクール\2023FILE\01_講義\プレ研修\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\edu\Documents\2023FILE\01_講義\プレ研修\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3E8B5B4-E331-4007-8015-FF065300CB28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D03708A3-9D16-4AED-87B4-A62B8AC0582D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3825" yWindow="3030" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19310" yWindow="760" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="研修概要" sheetId="5" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="363" uniqueCount="254">
   <si>
     <t>概要</t>
   </si>
@@ -2130,10 +2130,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>java/spring</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>成果物</t>
     <rPh sb="0" eb="2">
       <t>セイカ</t>
@@ -2141,6 +2137,18 @@
     <rPh sb="2" eb="3">
       <t>ブツ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>列2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>scratch</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2453,11 +2461,9 @@
     <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2479,23 +2485,31 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2512,18 +2526,38 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="21">
+  <dxfs count="23">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <name val="メイリオ"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="none"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -2735,29 +2769,29 @@
   </dxfs>
   <tableStyles count="5">
     <tableStyle name="研修概要-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="headerRow" dxfId="20"/>
-      <tableStyleElement type="firstRowStripe" dxfId="19"/>
-      <tableStyleElement type="secondRowStripe" dxfId="18"/>
+      <tableStyleElement type="headerRow" dxfId="22"/>
+      <tableStyleElement type="firstRowStripe" dxfId="21"/>
+      <tableStyleElement type="secondRowStripe" dxfId="20"/>
     </tableStyle>
     <tableStyle name="IT入門1日目-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
-      <tableStyleElement type="headerRow" dxfId="17"/>
-      <tableStyleElement type="firstRowStripe" dxfId="16"/>
-      <tableStyleElement type="secondRowStripe" dxfId="15"/>
+      <tableStyleElement type="headerRow" dxfId="19"/>
+      <tableStyleElement type="firstRowStripe" dxfId="18"/>
+      <tableStyleElement type="secondRowStripe" dxfId="17"/>
     </tableStyle>
     <tableStyle name="IT入門2日目-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF02000000}">
-      <tableStyleElement type="headerRow" dxfId="14"/>
-      <tableStyleElement type="firstRowStripe" dxfId="13"/>
-      <tableStyleElement type="secondRowStripe" dxfId="12"/>
+      <tableStyleElement type="headerRow" dxfId="16"/>
+      <tableStyleElement type="firstRowStripe" dxfId="15"/>
+      <tableStyleElement type="secondRowStripe" dxfId="14"/>
     </tableStyle>
     <tableStyle name="IT入門3日目-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF03000000}">
-      <tableStyleElement type="headerRow" dxfId="11"/>
-      <tableStyleElement type="firstRowStripe" dxfId="10"/>
-      <tableStyleElement type="secondRowStripe" dxfId="9"/>
+      <tableStyleElement type="headerRow" dxfId="13"/>
+      <tableStyleElement type="firstRowStripe" dxfId="12"/>
+      <tableStyleElement type="secondRowStripe" dxfId="11"/>
     </tableStyle>
     <tableStyle name="IT入門3日目-style 2" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF04000000}">
-      <tableStyleElement type="headerRow" dxfId="8"/>
-      <tableStyleElement type="firstRowStripe" dxfId="7"/>
-      <tableStyleElement type="secondRowStripe" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="10"/>
+      <tableStyleElement type="firstRowStripe" dxfId="9"/>
+      <tableStyleElement type="secondRowStripe" dxfId="8"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2772,10 +2806,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D89304C0-9319-4513-8DBE-72B34D8EED9A}" name="Table_17" displayName="Table_17" ref="A5:B12" headerRowDxfId="5" dataDxfId="4" totalsRowDxfId="3">
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{EEC9CD1E-2F24-43CE-A568-814B18BC8B66}" name="オープン単元" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{48A5AD24-B371-4913-892D-80990E6269D5}" name="列1" dataDxfId="1" totalsRowDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{D89304C0-9319-4513-8DBE-72B34D8EED9A}" name="Table_17" displayName="Table_17" ref="A5:C12" headerRowDxfId="7" dataDxfId="6" totalsRowDxfId="5">
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{EEC9CD1E-2F24-43CE-A568-814B18BC8B66}" name="オープン単元" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{48A5AD24-B371-4913-892D-80990E6269D5}" name="列1" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{8B7B411B-012B-488A-A78E-8F53027D5296}" name="列2" dataDxfId="1" totalsRowDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="研修概要-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2983,10 +3018,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:C33"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="145" zoomScaleNormal="70" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="190" zoomScaleNormal="70" zoomScaleSheetLayoutView="190" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -2996,41 +3031,50 @@
     <col min="3" max="16384" width="12.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" ht="24.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" ht="24.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="8" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A3" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="B3" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A4" s="3"/>
     </row>
-    <row r="5" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="33" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="C5" s="33" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A6" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="16.5" x14ac:dyDescent="0.4">
+      <c r="C6" s="2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
@@ -3038,7 +3082,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A8" s="6" t="s">
         <v>4</v>
       </c>
@@ -3046,7 +3090,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A9" s="7" t="s">
         <v>5</v>
       </c>
@@ -3054,33 +3098,33 @@
         <v>249</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A10" s="6" t="s">
         <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="16.5" x14ac:dyDescent="0.4">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A11" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A12" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="24.75" x14ac:dyDescent="0.55000000000000004">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="24.75" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A15" s="3" t="s">
         <v>11</v>
       </c>
@@ -3146,7 +3190,7 @@
   <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="A32" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3160,49 +3204,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="35" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
     </row>
     <row r="2" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
     </row>
     <row r="4" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
     </row>
     <row r="6" spans="1:5" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="12"/>
@@ -3224,10 +3268,10 @@
       <c r="B8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="41"/>
+      <c r="D8" s="39"/>
     </row>
     <row r="9" spans="1:5" ht="99" x14ac:dyDescent="0.4">
       <c r="A9" s="15" t="s">
@@ -3236,10 +3280,10 @@
       <c r="B9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="43"/>
+      <c r="D9" s="41"/>
     </row>
     <row r="10" spans="1:5" ht="313.5" x14ac:dyDescent="0.4">
       <c r="A10" s="16" t="s">
@@ -3248,10 +3292,10 @@
       <c r="B10" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="D10" s="45"/>
+      <c r="D10" s="43"/>
     </row>
     <row r="11" spans="1:5" ht="181.5" x14ac:dyDescent="0.4">
       <c r="A11" s="15" t="s">
@@ -3260,10 +3304,10 @@
       <c r="B11" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="43"/>
+      <c r="D11" s="41"/>
     </row>
     <row r="12" spans="1:5" ht="297" x14ac:dyDescent="0.4">
       <c r="A12" s="16" t="s">
@@ -3272,10 +3316,10 @@
       <c r="B12" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="44" t="s">
+      <c r="C12" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="45"/>
+      <c r="D12" s="43"/>
     </row>
     <row r="13" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
@@ -3286,10 +3330,10 @@
       <c r="A14" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="46"/>
+      <c r="C14" s="44"/>
       <c r="D14" s="18" t="s">
         <v>25</v>
       </c>
@@ -3301,10 +3345,10 @@
       <c r="A15" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="C15" s="36"/>
+      <c r="C15" s="34"/>
       <c r="D15" s="23" t="s">
         <v>100</v>
       </c>
@@ -3316,10 +3360,10 @@
       <c r="A16" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="35"/>
+      <c r="C16" s="45"/>
       <c r="D16" s="17" t="s">
         <v>30</v>
       </c>
@@ -3331,8 +3375,8 @@
       <c r="A17" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="36"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
       <c r="D17" s="6" t="s">
         <v>32</v>
       </c>
@@ -3344,8 +3388,8 @@
       <c r="A18" s="20" t="s">
         <v>226</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
+      <c r="B18" s="45"/>
+      <c r="C18" s="45"/>
       <c r="D18" s="16" t="s">
         <v>225</v>
       </c>
@@ -3357,8 +3401,8 @@
       <c r="A19" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="B19" s="36"/>
-      <c r="C19" s="36"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
       <c r="D19" s="15" t="s">
         <v>228</v>
       </c>
@@ -3370,10 +3414,10 @@
       <c r="A20" s="30" t="s">
         <v>230</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="B20" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="C20" s="33"/>
+      <c r="C20" s="46"/>
       <c r="D20" s="16" t="s">
         <v>35</v>
       </c>
@@ -3383,8 +3427,8 @@
       <c r="A21" s="19" t="s">
         <v>232</v>
       </c>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
       <c r="D21" s="15" t="s">
         <v>231</v>
       </c>
@@ -3396,8 +3440,8 @@
       <c r="A22" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="45"/>
       <c r="D22" s="16" t="s">
         <v>38</v>
       </c>
@@ -3409,10 +3453,10 @@
       <c r="A23" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="C23" s="36"/>
+      <c r="C23" s="34"/>
       <c r="D23" s="6" t="s">
         <v>35</v>
       </c>
@@ -3422,10 +3466,10 @@
       <c r="A24" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="C24" s="35"/>
+      <c r="C24" s="45"/>
       <c r="D24" s="17" t="s">
         <v>42</v>
       </c>
@@ -3437,8 +3481,8 @@
       <c r="A25" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
       <c r="D25" s="6" t="s">
         <v>44</v>
       </c>
@@ -3450,8 +3494,8 @@
       <c r="A26" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
+      <c r="B26" s="45"/>
+      <c r="C26" s="45"/>
       <c r="D26" s="17" t="s">
         <v>45</v>
       </c>
@@ -3463,10 +3507,10 @@
       <c r="A27" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="36"/>
+      <c r="C27" s="34"/>
       <c r="D27" s="6" t="s">
         <v>47</v>
       </c>
@@ -3476,10 +3520,10 @@
       <c r="A28" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="45" t="s">
         <v>41</v>
       </c>
-      <c r="C28" s="35"/>
+      <c r="C28" s="45"/>
       <c r="D28" s="17" t="s">
         <v>49</v>
       </c>
@@ -3491,8 +3535,8 @@
       <c r="A29" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
       <c r="D29" s="6" t="s">
         <v>51</v>
       </c>
@@ -3504,10 +3548,10 @@
       <c r="A30" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="C30" s="35"/>
+      <c r="C30" s="45"/>
       <c r="D30" s="17" t="s">
         <v>54</v>
       </c>
@@ -3517,10 +3561,10 @@
       <c r="A31" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B31" s="36" t="s">
+      <c r="B31" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="C31" s="36"/>
+      <c r="C31" s="34"/>
       <c r="D31" s="6" t="s">
         <v>35</v>
       </c>
@@ -3530,8 +3574,8 @@
       <c r="A32" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="45"/>
       <c r="D32" s="17" t="s">
         <v>71</v>
       </c>
@@ -3543,8 +3587,8 @@
       <c r="A33" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
+      <c r="B33" s="47"/>
+      <c r="C33" s="47"/>
       <c r="D33" s="6" t="s">
         <v>56</v>
       </c>
@@ -3554,8 +3598,8 @@
       <c r="A34" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="45"/>
       <c r="D34" s="17" t="s">
         <v>58</v>
       </c>
@@ -3565,8 +3609,8 @@
       <c r="A35" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="47"/>
       <c r="D35" s="6" t="s">
         <v>60</v>
       </c>
@@ -3576,10 +3620,10 @@
       <c r="A36" s="20" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="33" t="s">
+      <c r="B36" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="C36" s="33"/>
+      <c r="C36" s="46"/>
       <c r="D36" s="17" t="s">
         <v>35</v>
       </c>
@@ -3589,8 +3633,8 @@
       <c r="A37" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="47"/>
       <c r="D37" s="6" t="s">
         <v>72</v>
       </c>
@@ -3600,8 +3644,8 @@
       <c r="A38" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="45"/>
       <c r="D38" s="17" t="s">
         <v>62</v>
       </c>
@@ -3611,8 +3655,8 @@
       <c r="A39" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="47"/>
       <c r="D39" s="6" t="s">
         <v>73</v>
       </c>
@@ -3622,10 +3666,10 @@
       <c r="A40" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="B40" s="33" t="s">
+      <c r="B40" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="C40" s="33"/>
+      <c r="C40" s="46"/>
       <c r="D40" s="17" t="s">
         <v>35</v>
       </c>
@@ -3635,10 +3679,10 @@
       <c r="A41" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B41" s="34" t="s">
+      <c r="B41" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="C41" s="34"/>
+      <c r="C41" s="47"/>
       <c r="D41" s="6" t="s">
         <v>64</v>
       </c>
@@ -3650,8 +3694,8 @@
       <c r="A42" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="45"/>
       <c r="D42" s="17" t="s">
         <v>66</v>
       </c>
@@ -3663,10 +3707,10 @@
       <c r="A43" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="B43" s="36" t="s">
+      <c r="B43" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="C43" s="36"/>
+      <c r="C43" s="34"/>
       <c r="D43" s="6" t="s">
         <v>35</v>
       </c>
@@ -3676,10 +3720,10 @@
       <c r="A44" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="B44" s="33" t="s">
+      <c r="B44" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="C44" s="33"/>
+      <c r="C44" s="46"/>
       <c r="D44" s="16" t="s">
         <v>89</v>
       </c>
@@ -3691,10 +3735,10 @@
       <c r="A45" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B45" s="34" t="s">
+      <c r="B45" s="47" t="s">
         <v>95</v>
       </c>
-      <c r="C45" s="34"/>
+      <c r="C45" s="47"/>
       <c r="D45" s="6" t="s">
         <v>97</v>
       </c>
@@ -3706,10 +3750,10 @@
       <c r="A46" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B46" s="33" t="s">
+      <c r="B46" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="C46" s="33"/>
+      <c r="C46" s="46"/>
       <c r="D46" s="17" t="s">
         <v>102</v>
       </c>
@@ -3830,6 +3874,37 @@
     </row>
   </sheetData>
   <mergeCells count="43">
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
@@ -3842,37 +3917,6 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -3895,8 +3939,8 @@
   </sheetPr>
   <dimension ref="A1:E69"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView view="pageBreakPreview" topLeftCell="A24" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
@@ -3910,49 +3954,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="35" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
     </row>
     <row r="2" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
     </row>
     <row r="4" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
     </row>
     <row r="6" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="12"/>
@@ -3977,10 +4021,10 @@
       <c r="B8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="41"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:5" ht="313.5" x14ac:dyDescent="0.4">
@@ -3990,10 +4034,10 @@
       <c r="B9" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="40" t="s">
         <v>192</v>
       </c>
-      <c r="D9" s="43"/>
+      <c r="D9" s="41"/>
       <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5" ht="231" x14ac:dyDescent="0.4">
@@ -4003,10 +4047,10 @@
       <c r="B10" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="42" t="s">
         <v>106</v>
       </c>
-      <c r="D10" s="45"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:5" ht="99" x14ac:dyDescent="0.4">
@@ -4016,10 +4060,10 @@
       <c r="B11" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="48" t="s">
         <v>142</v>
       </c>
-      <c r="D11" s="52"/>
+      <c r="D11" s="49"/>
       <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -4031,10 +4075,10 @@
       <c r="A13" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="46"/>
+      <c r="C13" s="44"/>
       <c r="D13" s="18" t="s">
         <v>25</v>
       </c>
@@ -4046,10 +4090,10 @@
       <c r="A14" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="C14" s="36"/>
+      <c r="C14" s="34"/>
       <c r="D14" s="23" t="s">
         <v>100</v>
       </c>
@@ -4061,10 +4105,10 @@
       <c r="A15" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="35"/>
+      <c r="C15" s="45"/>
       <c r="D15" s="17" t="s">
         <v>108</v>
       </c>
@@ -4076,10 +4120,10 @@
       <c r="A16" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="C16" s="36"/>
+      <c r="C16" s="34"/>
       <c r="D16" s="6" t="s">
         <v>35</v>
       </c>
@@ -4089,10 +4133,10 @@
       <c r="A17" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="45" t="s">
         <v>84</v>
       </c>
-      <c r="C17" s="35"/>
+      <c r="C17" s="45"/>
       <c r="D17" s="17" t="s">
         <v>111</v>
       </c>
@@ -4104,10 +4148,10 @@
       <c r="A18" s="19" t="s">
         <v>113</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="36"/>
+      <c r="C18" s="34"/>
       <c r="D18" s="6" t="s">
         <v>112</v>
       </c>
@@ -4132,10 +4176,10 @@
       <c r="A20" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="49"/>
+      <c r="C20" s="51"/>
       <c r="D20" s="6" t="s">
         <v>64</v>
       </c>
@@ -4147,8 +4191,8 @@
       <c r="A21" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
+      <c r="B21" s="45"/>
+      <c r="C21" s="45"/>
       <c r="D21" s="17" t="s">
         <v>66</v>
       </c>
@@ -4160,8 +4204,8 @@
       <c r="A22" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B22" s="36"/>
-      <c r="C22" s="36"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
       <c r="D22" s="6" t="s">
         <v>67</v>
       </c>
@@ -4186,10 +4230,10 @@
       <c r="A24" s="19" t="s">
         <v>116</v>
       </c>
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="C24" s="49"/>
+      <c r="C24" s="51"/>
       <c r="D24" s="6" t="s">
         <v>68</v>
       </c>
@@ -4214,8 +4258,8 @@
       <c r="A26" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
       <c r="D26" s="6" t="s">
         <v>69</v>
       </c>
@@ -4225,10 +4269,10 @@
       <c r="A27" s="26" t="s">
         <v>117</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="C27" s="33"/>
+      <c r="C27" s="46"/>
       <c r="D27" s="17" t="s">
         <v>35</v>
       </c>
@@ -4238,8 +4282,8 @@
       <c r="A28" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
       <c r="D28" s="6" t="s">
         <v>136</v>
       </c>
@@ -4251,10 +4295,10 @@
       <c r="A29" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="35"/>
+      <c r="C29" s="45"/>
       <c r="D29" s="17" t="s">
         <v>118</v>
       </c>
@@ -4264,8 +4308,8 @@
       <c r="A30" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
       <c r="D30" s="6" t="s">
         <v>133</v>
       </c>
@@ -4277,10 +4321,10 @@
       <c r="A31" s="26" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="C31" s="33"/>
+      <c r="C31" s="46"/>
       <c r="D31" s="17" t="s">
         <v>35</v>
       </c>
@@ -4290,8 +4334,8 @@
       <c r="A32" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
       <c r="D32" s="6" t="s">
         <v>138</v>
       </c>
@@ -4303,8 +4347,8 @@
       <c r="A33" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
       <c r="D33" s="17" t="s">
         <v>119</v>
       </c>
@@ -4314,8 +4358,8 @@
       <c r="A34" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="B34" s="36"/>
-      <c r="C34" s="36"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
       <c r="D34" s="6" t="s">
         <v>122</v>
       </c>
@@ -4327,10 +4371,10 @@
       <c r="A35" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="B35" s="33" t="s">
+      <c r="B35" s="46" t="s">
         <v>100</v>
       </c>
-      <c r="C35" s="33"/>
+      <c r="C35" s="46"/>
       <c r="D35" s="17" t="s">
         <v>35</v>
       </c>
@@ -4340,8 +4384,8 @@
       <c r="A36" s="19" t="s">
         <v>128</v>
       </c>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="47"/>
       <c r="D36" s="6" t="s">
         <v>124</v>
       </c>
@@ -4351,8 +4395,8 @@
       <c r="A37" s="20" t="s">
         <v>139</v>
       </c>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="45"/>
       <c r="D37" s="17" t="s">
         <v>127</v>
       </c>
@@ -4364,10 +4408,10 @@
       <c r="A38" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="B38" s="48" t="s">
+      <c r="B38" s="53" t="s">
         <v>140</v>
       </c>
-      <c r="C38" s="49"/>
+      <c r="C38" s="51"/>
       <c r="D38" s="6" t="s">
         <v>130</v>
       </c>
@@ -4379,10 +4423,10 @@
       <c r="A39" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="B39" s="33" t="s">
+      <c r="B39" s="46" t="s">
         <v>99</v>
       </c>
-      <c r="C39" s="33"/>
+      <c r="C39" s="46"/>
       <c r="D39" s="17" t="s">
         <v>35</v>
       </c>
@@ -4392,10 +4436,10 @@
       <c r="A40" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="B40" s="36" t="s">
+      <c r="B40" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="C40" s="36"/>
+      <c r="C40" s="34"/>
       <c r="D40" s="15" t="s">
         <v>89</v>
       </c>
@@ -4407,10 +4451,10 @@
       <c r="A41" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B41" s="47" t="s">
+      <c r="B41" s="52" t="s">
         <v>94</v>
       </c>
-      <c r="C41" s="47"/>
+      <c r="C41" s="52"/>
       <c r="D41" s="17" t="s">
         <v>96</v>
       </c>
@@ -4422,10 +4466,10 @@
       <c r="A42" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="B42" s="36" t="s">
+      <c r="B42" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="C42" s="36"/>
+      <c r="C42" s="34"/>
       <c r="D42" s="6" t="s">
         <v>101</v>
       </c>
@@ -4562,31 +4606,6 @@
     </row>
   </sheetData>
   <mergeCells count="39">
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
     <mergeCell ref="B40:C40"/>
     <mergeCell ref="B41:C41"/>
     <mergeCell ref="B42:C42"/>
@@ -4601,6 +4620,31 @@
     <mergeCell ref="B37:C37"/>
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B15:C15"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
@@ -4618,7 +4662,7 @@
   </sheetPr>
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
+    <sheetView view="pageBreakPreview" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" zoomScaleSheetLayoutView="70" workbookViewId="0">
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
@@ -4633,49 +4677,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="24.75" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="35" t="s">
         <v>239</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
     </row>
     <row r="2" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
+      <c r="B2" s="36"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
     </row>
     <row r="3" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="39" t="s">
+      <c r="A3" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
     </row>
     <row r="4" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="38"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
+      <c r="B4" s="36"/>
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="36"/>
     </row>
     <row r="5" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="36"/>
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
     </row>
     <row r="6" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="12"/>
@@ -4700,10 +4744,10 @@
       <c r="B8" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="41"/>
+      <c r="D8" s="39"/>
       <c r="E8" s="11"/>
     </row>
     <row r="9" spans="1:5" ht="165" x14ac:dyDescent="0.4">
@@ -4713,10 +4757,10 @@
       <c r="B9" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="40" t="s">
         <v>145</v>
       </c>
-      <c r="D9" s="43"/>
+      <c r="D9" s="41"/>
       <c r="E9" s="11"/>
     </row>
     <row r="10" spans="1:5" ht="231" x14ac:dyDescent="0.4">
@@ -4726,10 +4770,10 @@
       <c r="B10" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="C10" s="44" t="s">
+      <c r="C10" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="D10" s="45"/>
+      <c r="D10" s="43"/>
       <c r="E10" s="11"/>
     </row>
     <row r="11" spans="1:5" ht="181.5" x14ac:dyDescent="0.4">
@@ -4739,10 +4783,10 @@
       <c r="B11" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="C11" s="51" t="s">
+      <c r="C11" s="48" t="s">
         <v>147</v>
       </c>
-      <c r="D11" s="52"/>
+      <c r="D11" s="49"/>
       <c r="E11" s="11"/>
     </row>
     <row r="12" spans="1:5" ht="24.6" customHeight="1" x14ac:dyDescent="0.4">
@@ -4754,10 +4798,10 @@
       <c r="A13" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="C13" s="46"/>
+      <c r="C13" s="44"/>
       <c r="D13" s="18" t="s">
         <v>25</v>
       </c>
@@ -4769,10 +4813,10 @@
       <c r="A14" s="19" t="s">
         <v>109</v>
       </c>
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="C14" s="53"/>
+      <c r="C14" s="55"/>
       <c r="D14" s="22" t="s">
         <v>100</v>
       </c>
@@ -4784,10 +4828,10 @@
       <c r="A15" s="26" t="s">
         <v>151</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="C15" s="35"/>
+      <c r="C15" s="45"/>
       <c r="D15" s="17" t="s">
         <v>130</v>
       </c>
@@ -4799,8 +4843,8 @@
       <c r="A16" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="B16" s="53"/>
-      <c r="C16" s="53"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="55"/>
       <c r="D16" s="6" t="s">
         <v>149</v>
       </c>
@@ -4812,8 +4856,8 @@
       <c r="A17" s="26" t="s">
         <v>120</v>
       </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="45"/>
       <c r="D17" s="17" t="s">
         <v>150</v>
       </c>
@@ -4823,10 +4867,10 @@
       <c r="A18" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="C18" s="53"/>
+      <c r="C18" s="55"/>
       <c r="D18" s="6" t="s">
         <v>35</v>
       </c>
@@ -4847,10 +4891,10 @@
       <c r="A20" s="19" t="s">
         <v>156</v>
       </c>
-      <c r="B20" s="49" t="s">
+      <c r="B20" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="C20" s="49"/>
+      <c r="C20" s="51"/>
       <c r="D20" s="6" t="s">
         <v>171</v>
       </c>
@@ -4875,8 +4919,8 @@
       <c r="A22" s="19" t="s">
         <v>157</v>
       </c>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="55"/>
       <c r="D22" s="15" t="s">
         <v>158</v>
       </c>
@@ -4886,10 +4930,10 @@
       <c r="A23" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="C23" s="47"/>
+      <c r="C23" s="52"/>
       <c r="D23" s="17" t="s">
         <v>160</v>
       </c>
@@ -4901,8 +4945,8 @@
       <c r="A24" s="19" t="s">
         <v>162</v>
       </c>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
+      <c r="B24" s="55"/>
+      <c r="C24" s="55"/>
       <c r="D24" s="6" t="s">
         <v>163</v>
       </c>
@@ -4927,10 +4971,10 @@
       <c r="A26" s="19" t="s">
         <v>164</v>
       </c>
-      <c r="B26" s="56" t="s">
+      <c r="B26" s="58" t="s">
         <v>159</v>
       </c>
-      <c r="C26" s="57"/>
+      <c r="C26" s="59"/>
       <c r="D26" s="6" t="s">
         <v>165</v>
       </c>
@@ -4942,10 +4986,10 @@
       <c r="A27" s="26" t="s">
         <v>166</v>
       </c>
-      <c r="B27" s="54" t="s">
+      <c r="B27" s="56" t="s">
         <v>241</v>
       </c>
-      <c r="C27" s="55"/>
+      <c r="C27" s="57"/>
       <c r="D27" s="17" t="s">
         <v>242</v>
       </c>
@@ -4957,10 +5001,10 @@
       <c r="A28" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="53"/>
+      <c r="C28" s="55"/>
       <c r="D28" s="6" t="s">
         <v>35</v>
       </c>
@@ -4970,10 +5014,10 @@
       <c r="A29" s="26" t="s">
         <v>167</v>
       </c>
-      <c r="B29" s="54" t="s">
+      <c r="B29" s="56" t="s">
         <v>241</v>
       </c>
-      <c r="C29" s="55"/>
+      <c r="C29" s="57"/>
       <c r="D29" s="17"/>
       <c r="E29" s="16" t="s">
         <v>168</v>
@@ -4983,10 +5027,10 @@
       <c r="A30" s="19" t="s">
         <v>169</v>
       </c>
-      <c r="B30" s="53" t="s">
+      <c r="B30" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="C30" s="53"/>
+      <c r="C30" s="55"/>
       <c r="D30" s="6" t="s">
         <v>35</v>
       </c>
@@ -4996,10 +5040,10 @@
       <c r="A31" s="26" t="s">
         <v>173</v>
       </c>
-      <c r="B31" s="47" t="s">
+      <c r="B31" s="52" t="s">
         <v>170</v>
       </c>
-      <c r="C31" s="47"/>
+      <c r="C31" s="52"/>
       <c r="D31" s="17" t="s">
         <v>172</v>
       </c>
@@ -5011,10 +5055,10 @@
       <c r="A32" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B32" s="53" t="s">
+      <c r="B32" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="C32" s="53"/>
+      <c r="C32" s="55"/>
       <c r="D32" s="6" t="s">
         <v>35</v>
       </c>
@@ -5024,8 +5068,8 @@
       <c r="A33" s="26" t="s">
         <v>178</v>
       </c>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="45"/>
       <c r="D33" s="16" t="s">
         <v>177</v>
       </c>
@@ -5037,10 +5081,10 @@
       <c r="A34" s="19" t="s">
         <v>175</v>
       </c>
-      <c r="B34" s="53" t="s">
+      <c r="B34" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="C34" s="53"/>
+      <c r="C34" s="55"/>
       <c r="D34" s="6" t="s">
         <v>35</v>
       </c>
@@ -5065,10 +5109,10 @@
       <c r="A36" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B36" s="34" t="s">
+      <c r="B36" s="47" t="s">
         <v>94</v>
       </c>
-      <c r="C36" s="34"/>
+      <c r="C36" s="47"/>
       <c r="D36" s="6" t="s">
         <v>96</v>
       </c>
@@ -5205,6 +5249,28 @@
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
     <mergeCell ref="B15:C15"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:E2"/>
@@ -5217,28 +5283,6 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <hyperlinks>
